--- a/testcode/stream测试.xlsx
+++ b/testcode/stream测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作空间\GLEX-Alltoall-paper\testcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFEA269-6D1D-464B-A46D-AC098F317E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB25E8BC-102B-4614-832E-2F60A9272B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="2040" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,6 +463,18 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>6481</v>
+      </c>
+      <c r="C2">
+        <v>6445.8</v>
+      </c>
+      <c r="D2">
+        <v>6077.9</v>
+      </c>
+      <c r="E2">
+        <v>6115.9</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -541,6 +553,18 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8">
+        <v>21351.8</v>
+      </c>
+      <c r="C8">
+        <v>21351.3</v>
+      </c>
+      <c r="D8">
+        <v>22118.2</v>
+      </c>
+      <c r="E8">
+        <v>22445.200000000001</v>
       </c>
       <c r="F8">
         <v>32</v>
